--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Zstring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CA2995-2365-4AB3-B039-BD985E17A7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395A365-0B5A-453E-8FD1-A05998E2E654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2625" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,27 @@
   <si>
     <t>Male</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>left eye tracked</t>
+  </si>
+  <si>
+    <t>Contact lenses</t>
+  </si>
+  <si>
+    <t>glasses; left eye tracked</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +69,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -362,27 +394,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -393,7 +430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -403,8 +440,11 @@
       <c r="C3" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -415,7 +455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -426,7 +466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -437,7 +477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -448,7 +488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -459,7 +499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -470,7 +510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -481,7 +521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -492,7 +532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -503,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -513,8 +553,11 @@
       <c r="C13" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -525,7 +568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -536,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -547,7 +590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -557,8 +600,11 @@
       <c r="C17" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -569,7 +615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -580,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -591,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -602,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -613,7 +659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -624,7 +670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -635,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -646,7 +692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -657,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -668,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -678,8 +724,11 @@
       <c r="C28" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -690,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -701,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -711,8 +760,11 @@
       <c r="C31" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -722,8 +774,11 @@
       <c r="C32" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -734,7 +789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -744,8 +799,11 @@
       <c r="C34" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -755,8 +813,11 @@
       <c r="C35" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -767,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -778,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -789,7 +850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -799,8 +860,11 @@
       <c r="C39" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -811,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -822,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -833,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -844,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -855,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -866,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -877,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -888,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -899,7 +963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -910,7 +974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -921,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -932,7 +996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -943,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -954,7 +1018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -965,7 +1029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -976,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -987,7 +1051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -998,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1009,7 +1073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1020,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1031,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1041,8 +1105,11 @@
       <c r="C61" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1053,7 +1120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1061,10 +1128,13 @@
         <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1075,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1086,7 +1156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1097,7 +1167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1108,7 +1178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1119,7 +1189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1129,25 +1199,52 @@
       <c r="C69" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Zstring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6395A365-0B5A-453E-8FD1-A05998E2E654}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBAA360-236C-4F55-855C-F9017D768195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$73</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1259,32 @@
         <v>20</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <f>AVERAGE(C2:C73)</f>
+        <v>20.166666666666668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <f>_xlfn.STDEV.S(C2:C73)</f>
+        <v>4.1790894621190349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <f>MIN(C2:C73)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <f>MAX(C2:C73)</f>
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Zstring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBAA360-236C-4F55-855C-F9017D768195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93123525-B4D1-4A28-80DD-8574F4641C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={73C234C9-4095-4FA5-AC96-D2A142BE237B}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{73C234C9-4095-4FA5-AC96-D2A142BE237B}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    1= yes; 0= no</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -68,12 +86,15 @@
   <si>
     <t>glasses; left eye tracked</t>
   </si>
+  <si>
+    <t>aware of sound presentation?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +109,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,7 +153,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -139,6 +166,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Vasilev" id="{AE3BAB67-58F4-49BD-AC3F-AC1046071B59}" userId="Martin Vasilev" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,22 +435,30 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2021-11-16T11:24:45.36" personId="{AE3BAB67-58F4-49BD-AC3F-AC1046071B59}" id="{73C234C9-4095-4FA5-AC96-D2A142BE237B}">
+    <text>1= yes; 0= no</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,8 +471,11 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -441,8 +485,11 @@
       <c r="C2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -455,8 +502,11 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -466,8 +516,11 @@
       <c r="C4" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -477,8 +530,11 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -488,8 +544,11 @@
       <c r="C6" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -499,8 +558,11 @@
       <c r="C7" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -510,8 +572,11 @@
       <c r="C8" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -521,8 +586,11 @@
       <c r="C9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -532,8 +600,11 @@
       <c r="C10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -543,8 +614,11 @@
       <c r="C11" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -554,8 +628,11 @@
       <c r="C12" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -568,8 +645,11 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -579,8 +659,11 @@
       <c r="C14" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -590,8 +673,11 @@
       <c r="C15" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -601,8 +687,11 @@
       <c r="C16" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -615,8 +704,11 @@
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -626,8 +718,11 @@
       <c r="C18" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -637,8 +732,11 @@
       <c r="C19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -648,8 +746,11 @@
       <c r="C20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -659,8 +760,11 @@
       <c r="C21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -670,8 +774,11 @@
       <c r="C22" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -681,8 +788,11 @@
       <c r="C23" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -692,8 +802,11 @@
       <c r="C24" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -703,8 +816,11 @@
       <c r="C25" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -714,8 +830,11 @@
       <c r="C26" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -725,8 +844,11 @@
       <c r="C27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -739,8 +861,11 @@
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -750,8 +875,11 @@
       <c r="C29" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -761,8 +889,11 @@
       <c r="C30" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -775,8 +906,11 @@
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -789,8 +923,11 @@
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -800,8 +937,11 @@
       <c r="C33" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -814,8 +954,11 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -828,8 +971,11 @@
       <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -839,8 +985,11 @@
       <c r="C36" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -850,8 +999,11 @@
       <c r="C37" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -861,8 +1013,11 @@
       <c r="C38" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -875,8 +1030,11 @@
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -886,8 +1044,11 @@
       <c r="C40" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -897,8 +1058,11 @@
       <c r="C41" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -908,8 +1072,11 @@
       <c r="C42" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -919,8 +1086,11 @@
       <c r="C43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -930,8 +1100,11 @@
       <c r="C44" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -941,8 +1114,11 @@
       <c r="C45" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -952,8 +1128,11 @@
       <c r="C46" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -963,8 +1142,11 @@
       <c r="C47" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -974,8 +1156,11 @@
       <c r="C48" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -985,8 +1170,11 @@
       <c r="C49" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -996,8 +1184,11 @@
       <c r="C50" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1007,8 +1198,11 @@
       <c r="C51" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1018,8 +1212,11 @@
       <c r="C52" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1029,8 +1226,11 @@
       <c r="C53" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1040,8 +1240,11 @@
       <c r="C54" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1051,8 +1254,11 @@
       <c r="C55" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1062,8 +1268,11 @@
       <c r="C56" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1073,8 +1282,11 @@
       <c r="C57" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1084,8 +1296,11 @@
       <c r="C58" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1095,8 +1310,11 @@
       <c r="C59" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1106,8 +1324,11 @@
       <c r="C60" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1120,8 +1341,11 @@
       <c r="D61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1131,8 +1355,11 @@
       <c r="C62" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1145,8 +1372,11 @@
       <c r="D63" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1156,8 +1386,11 @@
       <c r="C64" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1167,8 +1400,11 @@
       <c r="C65" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1178,8 +1414,11 @@
       <c r="C66" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1189,8 +1428,11 @@
       <c r="C67" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1200,8 +1442,11 @@
       <c r="C68" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1214,8 +1459,11 @@
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1225,8 +1473,11 @@
       <c r="C70" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1236,8 +1487,11 @@
       <c r="C71" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1247,8 +1501,11 @@
       <c r="C72" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1258,26 +1515,35 @@
       <c r="C73" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="1">
+        <f>(SUM(E2:E74)/72)*100</f>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C76" s="1">
         <f>AVERAGE(C2:C73)</f>
         <v>20.166666666666668</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C77" s="1">
         <f>_xlfn.STDEV.S(C2:C73)</f>
         <v>4.1790894621190349</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C79" s="1">
         <f>MIN(C2:C73)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C80" s="1">
         <f>MAX(C2:C73)</f>
         <v>53</v>
@@ -1286,5 +1552,7 @@
   </sheetData>
   <autoFilter ref="A1:D73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>